--- a/refs/2.Projekt_zespolowy_GANTT_02_04.xlsx
+++ b/refs/2.Projekt_zespolowy_GANTT_02_04.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27612"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PROJEKT_ZESPOLOWY\S1\0.2_pz_Dla_Studentow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82AE934-3BB9-4E62-9497-C2106C118F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{895C0F64-6757-49FE-B80C-C49BF1E8CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt_zespolowy" sheetId="9" r:id="rId1"/>
+    <sheet name="10.04.2024 - Minutki" sheetId="10" r:id="rId2"/>
+    <sheet name="17.04.2024 - Minutki" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projekt_zespolowy!$A$1:$BN$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Projekt_zespolowy!$A$1:$BN$36</definedName>
     <definedName name="prevWBS" localSheetId="0">Projekt_zespolowy!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Projekt_zespolowy!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -432,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>Temat projektu: Opracowaniu modelu predykcyjnego dla potrzeb budowy aplikacji szacowania wartości rynkowej nieruchomości mieszkalnych</t>
   </si>
@@ -521,15 +523,21 @@
     <t>Przygotowanie i walidacja danych</t>
   </si>
   <si>
+    <t>Dominik, Arek</t>
+  </si>
+  <si>
+    <t>Przygotowanie prototypu modelu predykcyjnego</t>
+  </si>
+  <si>
+    <t>Selekcja modeli treningowych</t>
+  </si>
+  <si>
+    <t>Trenowanie sieci</t>
+  </si>
+  <si>
     <t>Dominik, Arek, Mateusz</t>
   </si>
   <si>
-    <t>Selekcja modeli treningowych</t>
-  </si>
-  <si>
-    <t>Trenowanie sieci</t>
-  </si>
-  <si>
     <t>Testowanie modelu</t>
   </si>
   <si>
@@ -560,6 +568,12 @@
     <t>Testy manualne</t>
   </si>
   <si>
+    <t>Opracowanie struktury bazy danych (model BD)</t>
+  </si>
+  <si>
+    <t>Arek, Mateusz</t>
+  </si>
+  <si>
     <t>Dokumentacja</t>
   </si>
   <si>
@@ -567,6 +581,117 @@
   </si>
   <si>
     <t>Prezentacja końcowa</t>
+  </si>
+  <si>
+    <t>27.03-10.04</t>
+  </si>
+  <si>
+    <t>Co udało się zrobić</t>
+  </si>
+  <si>
+    <t>Co jest do zrobienia</t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
+    <t>Dokonanie wyboru, które cechy będą ostatecznie możliwe do wyboru na stronie</t>
+  </si>
+  <si>
+    <t>Testowanie sieci</t>
+  </si>
+  <si>
+    <t>Opracowano modele dla 14, 7, 4 cech wejściowych</t>
+  </si>
+  <si>
+    <t>Przeszukiwanie najlepszych hiperparametrów</t>
+  </si>
+  <si>
+    <t>Selekcja formatu wyeksportowanego modelu</t>
+  </si>
+  <si>
+    <t>Front-end:</t>
+  </si>
+  <si>
+    <t>Wygenerowano cztery prototypy interfejsu użytkownika</t>
+  </si>
+  <si>
+    <t>Na podstawie wspólnego wyboru tworzona będzie ostateczna wersja makiety</t>
+  </si>
+  <si>
+    <t>Grupowo wybrano szatę kolorystyczną oraz graficzną</t>
+  </si>
+  <si>
+    <t>Inicjacja projektu w Vuetify</t>
+  </si>
+  <si>
+    <t>Baza danych:</t>
+  </si>
+  <si>
+    <t>Zapisywanie użytkowników</t>
+  </si>
+  <si>
+    <t>Zapisywanie nieruchomości</t>
+  </si>
+  <si>
+    <t>Uzasadnienie: dyskusja nakierowana została przede wszystkim na auto-generację danych w opraciu o parametry typu mediana dla wybranych cech wejściowych co skutkować może koniecznością zmiany modelu bazy danych.</t>
+  </si>
+  <si>
+    <t>(?)Zapisywanie wartości historycznych nieruchomości oraz odchyłek od średniej</t>
+  </si>
+  <si>
+    <t>Back-end:</t>
+  </si>
+  <si>
+    <t>Utworzono projekt Java Spring Boot (java 19)</t>
+  </si>
+  <si>
+    <t>Robocza wersja aplikacji back-endowej obsługująca jeden end-point</t>
+  </si>
+  <si>
+    <t>Obmyślono wstępny koncept bazy danych</t>
+  </si>
+  <si>
+    <t>zwracający wynik w postaci ceny nieruchomości na bazie danych wejściowych</t>
+  </si>
+  <si>
+    <t>Baza danych: MongoDB</t>
+  </si>
+  <si>
+    <t>Inne:</t>
+  </si>
+  <si>
+    <t>Rozmawialiśmy o przyszłościowym rozwoju aplikacji</t>
+  </si>
+  <si>
+    <t>Utworzenie warstwy normalizującej cechy wejściowe modelu.</t>
+  </si>
+  <si>
+    <t>Utworzenie modelu dopasowującego liczbę cech wejściowych opartego na np: medianie wartości cech.</t>
+  </si>
+  <si>
+    <t>Utworzyć macierz pomyłek, znaleźć wskaźniki jakości modelu regresji.</t>
+  </si>
+  <si>
+    <t>Rozeznanie możliwości budowy warstwy Front-End'owej</t>
+  </si>
+  <si>
+    <t>Baza danych</t>
+  </si>
+  <si>
+    <t>Dodano osobne zadanie wykonania struktury bazy danych do wykresu GANTT'a</t>
+  </si>
+  <si>
+    <t>Opracowanie bazy danych przeniesione na dalszy etap prac.</t>
+  </si>
+  <si>
+    <t>Implementacja modelu predykcyjnego do projektu Spring Boot</t>
+  </si>
+  <si>
+    <t>Zrefaktoryzowana wersja aplikacji back-endowej + obsługa pozostałych (bardziej zaawansowanych) modeli predykcyjnych. Dyskusja konieczności zastosowanie DTO dla przemapowywania niezbędnych danych w bardziej zaaw. modelach. Spojrzenie na opcje przyjmowania wartości na podstawie median co umożliwi używanie tego najbardziej zaawansowanego modelu</t>
+  </si>
+  <si>
+    <t>Przygotowanie REST GET endpointa obsługującego użycie modelu predykcyjnego</t>
   </si>
 </sst>
 </file>
@@ -579,7 +704,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -872,8 +997,74 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,8 +1185,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1266,6 +1481,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1316,7 +1763,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1504,29 +1951,219 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,7 +2213,33 @@
     <cellStyle name="Uwaga" xfId="38" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Zły" xfId="25" builtinId="27" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2054,11 +2717,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN48"/>
+  <dimension ref="A1:BN50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
@@ -2085,27 +2748,27 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="55"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1">
       <c r="A2" s="8"/>
@@ -2143,100 +2806,100 @@
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="82">
         <v>45364</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="41"/>
       <c r="G4" s="42" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="67" t="str">
+      <c r="K4" s="75" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="67" t="str">
+        <v>Week 2</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="75" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="67" t="str">
+        <v>Week 3</v>
+      </c>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="75" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="67" t="str">
+        <v>Week 4</v>
+      </c>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="75" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="67" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="75" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="67" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="75" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="67" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="75" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="67" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="75" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="69"/>
+        <v>Week 9</v>
+      </c>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="77"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1">
       <c r="A5" s="41"/>
@@ -2246,86 +2909,86 @@
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="71">
+      <c r="K5" s="78">
         <f>K6</f>
-        <v>45362</v>
-      </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="71">
+        <v>45369</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="78">
         <f>R6</f>
-        <v>45369</v>
-      </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="71">
+        <v>45376</v>
+      </c>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="78">
         <f>Y6</f>
-        <v>45376</v>
-      </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="71">
+        <v>45383</v>
+      </c>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="78">
         <f>AF6</f>
-        <v>45383</v>
-      </c>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="71">
+        <v>45390</v>
+      </c>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="78">
         <f>AM6</f>
-        <v>45390</v>
-      </c>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="71">
+        <v>45397</v>
+      </c>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="78">
         <f>AT6</f>
-        <v>45397</v>
-      </c>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="72"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="71">
+        <v>45404</v>
+      </c>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="78">
         <f>BA6</f>
-        <v>45404</v>
-      </c>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="72"/>
-      <c r="BD5" s="72"/>
-      <c r="BE5" s="72"/>
-      <c r="BF5" s="72"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="71">
+        <v>45411</v>
+      </c>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="78">
         <f>BH6</f>
-        <v>45411</v>
-      </c>
-      <c r="BI5" s="72"/>
-      <c r="BJ5" s="72"/>
-      <c r="BK5" s="72"/>
-      <c r="BL5" s="72"/>
-      <c r="BM5" s="72"/>
-      <c r="BN5" s="73"/>
+        <v>45418</v>
+      </c>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="80"/>
     </row>
     <row r="6" spans="1:66">
       <c r="A6" s="7"/>
@@ -2340,227 +3003,227 @@
       <c r="J6" s="7"/>
       <c r="K6" s="30">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>45362</v>
+        <v>45369</v>
       </c>
       <c r="L6" s="21">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>45363</v>
+        <v>45370</v>
       </c>
       <c r="M6" s="21">
         <f t="shared" si="0"/>
-        <v>45364</v>
+        <v>45371</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="0"/>
-        <v>45365</v>
+        <v>45372</v>
       </c>
       <c r="O6" s="21">
         <f t="shared" si="0"/>
-        <v>45366</v>
+        <v>45373</v>
       </c>
       <c r="P6" s="21">
         <f t="shared" si="0"/>
-        <v>45367</v>
+        <v>45374</v>
       </c>
       <c r="Q6" s="31">
         <f t="shared" si="0"/>
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="R6" s="30">
         <f t="shared" si="0"/>
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45377</v>
       </c>
       <c r="T6" s="21">
         <f t="shared" si="0"/>
-        <v>45371</v>
+        <v>45378</v>
       </c>
       <c r="U6" s="21">
         <f t="shared" si="0"/>
-        <v>45372</v>
+        <v>45379</v>
       </c>
       <c r="V6" s="21">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45380</v>
       </c>
       <c r="W6" s="21">
         <f t="shared" si="0"/>
-        <v>45374</v>
+        <v>45381</v>
       </c>
       <c r="X6" s="31">
         <f t="shared" si="0"/>
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="Y6" s="30">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="Z6" s="21">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45384</v>
       </c>
       <c r="AA6" s="21">
         <f t="shared" si="0"/>
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="AB6" s="21">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45386</v>
       </c>
       <c r="AC6" s="21">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45387</v>
       </c>
       <c r="AD6" s="21">
         <f t="shared" si="0"/>
-        <v>45381</v>
+        <v>45388</v>
       </c>
       <c r="AE6" s="31">
         <f t="shared" si="0"/>
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="AF6" s="30">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45390</v>
       </c>
       <c r="AG6" s="21">
         <f t="shared" si="0"/>
-        <v>45384</v>
+        <v>45391</v>
       </c>
       <c r="AH6" s="21">
         <f t="shared" si="0"/>
-        <v>45385</v>
+        <v>45392</v>
       </c>
       <c r="AI6" s="21">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45393</v>
       </c>
       <c r="AJ6" s="21">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45394</v>
       </c>
       <c r="AK6" s="21">
         <f t="shared" si="0"/>
-        <v>45388</v>
+        <v>45395</v>
       </c>
       <c r="AL6" s="31">
         <f t="shared" si="0"/>
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="AM6" s="30">
         <f t="shared" si="0"/>
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="AN6" s="21">
         <f t="shared" si="0"/>
-        <v>45391</v>
+        <v>45398</v>
       </c>
       <c r="AO6" s="21">
         <f t="shared" si="0"/>
-        <v>45392</v>
+        <v>45399</v>
       </c>
       <c r="AP6" s="21">
         <f t="shared" si="0"/>
-        <v>45393</v>
+        <v>45400</v>
       </c>
       <c r="AQ6" s="21">
         <f t="shared" si="0"/>
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="AR6" s="21">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>45395</v>
+        <v>45402</v>
       </c>
       <c r="AS6" s="31">
         <f t="shared" si="1"/>
-        <v>45396</v>
+        <v>45403</v>
       </c>
       <c r="AT6" s="30">
         <f t="shared" si="1"/>
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="AU6" s="21">
         <f t="shared" si="1"/>
-        <v>45398</v>
+        <v>45405</v>
       </c>
       <c r="AV6" s="21">
         <f t="shared" si="1"/>
-        <v>45399</v>
+        <v>45406</v>
       </c>
       <c r="AW6" s="21">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>45407</v>
       </c>
       <c r="AX6" s="21">
         <f t="shared" si="1"/>
-        <v>45401</v>
+        <v>45408</v>
       </c>
       <c r="AY6" s="21">
         <f t="shared" si="1"/>
-        <v>45402</v>
+        <v>45409</v>
       </c>
       <c r="AZ6" s="31">
         <f t="shared" si="1"/>
-        <v>45403</v>
+        <v>45410</v>
       </c>
       <c r="BA6" s="30">
         <f t="shared" si="1"/>
-        <v>45404</v>
+        <v>45411</v>
       </c>
       <c r="BB6" s="21">
         <f t="shared" si="1"/>
-        <v>45405</v>
+        <v>45412</v>
       </c>
       <c r="BC6" s="21">
         <f t="shared" si="1"/>
-        <v>45406</v>
+        <v>45413</v>
       </c>
       <c r="BD6" s="21">
         <f t="shared" si="1"/>
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="BE6" s="21">
         <f t="shared" si="1"/>
-        <v>45408</v>
+        <v>45415</v>
       </c>
       <c r="BF6" s="21">
         <f t="shared" si="1"/>
-        <v>45409</v>
+        <v>45416</v>
       </c>
       <c r="BG6" s="31">
         <f t="shared" si="1"/>
-        <v>45410</v>
+        <v>45417</v>
       </c>
       <c r="BH6" s="30">
         <f t="shared" si="1"/>
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="BI6" s="21">
         <f t="shared" si="1"/>
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="BJ6" s="21">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45420</v>
       </c>
       <c r="BK6" s="21">
         <f t="shared" si="1"/>
-        <v>45414</v>
+        <v>45421</v>
       </c>
       <c r="BL6" s="21">
         <f t="shared" si="1"/>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="BM6" s="21">
         <f t="shared" si="1"/>
-        <v>45416</v>
+        <v>45423</v>
       </c>
       <c r="BN6" s="31">
         <f t="shared" si="1"/>
-        <v>45417</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="2" customFormat="1" ht="24">
@@ -2835,7 +3498,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="str">
-        <f t="shared" ref="I8:I32" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I33" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="32"/>
@@ -2919,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="19">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="4"/>
@@ -3006,7 +3669,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="19">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="4"/>
@@ -3086,7 +3749,7 @@
         <v>45368</v>
       </c>
       <c r="F11" s="36">
-        <f t="shared" ref="F11:F31" si="6">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" ref="F11:F32" si="6">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>45368</v>
       </c>
       <c r="G11" s="18">
@@ -3180,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="4"/>
@@ -3267,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="4"/>
@@ -3354,7 +4017,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" ref="I14" si="8">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
@@ -3586,7 +4249,7 @@
     </row>
     <row r="17" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A17" s="16" t="str">
-        <f t="shared" ref="A17:A25" ca="1" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A17:A26" ca="1" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B17" s="52" t="s">
@@ -3596,20 +4259,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="53"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36" t="str">
+      <c r="E17" s="35">
+        <v>45374</v>
+      </c>
+      <c r="F17" s="36">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>45378</v>
       </c>
       <c r="G17" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>3</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="16"/>
@@ -3930,20 +4595,22 @@
         <v>29</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="str">
+      <c r="E21" s="35">
+        <v>45374</v>
+      </c>
+      <c r="F21" s="36">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
+        <v>45378</v>
       </c>
       <c r="G21" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>3</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="16"/>
@@ -4005,7 +4672,7 @@
     </row>
     <row r="22" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A22" s="16" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>3.2</v>
       </c>
       <c r="B22" s="52" t="s">
@@ -4015,11 +4682,23 @@
         <v>29</v>
       </c>
       <c r="D22" s="53"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="E22" s="35">
+        <v>45378</v>
+      </c>
+      <c r="F22" s="36">
+        <f t="shared" ref="F22" si="10">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
+        <v>45384</v>
+      </c>
+      <c r="G22" s="18">
+        <v>7</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" ref="I22" si="11">IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
+        <v>5</v>
+      </c>
       <c r="J22" s="33"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -4078,9 +4757,9 @@
       <c r="BM22" s="16"/>
       <c r="BN22" s="16"/>
     </row>
-    <row r="23" spans="1:66" s="17" customFormat="1" ht="17.45">
+    <row r="23" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A23" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
       <c r="B23" s="52" t="s">
@@ -4090,20 +4769,22 @@
         <v>29</v>
       </c>
       <c r="D23" s="53"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="str">
-        <f t="shared" ref="F23:F25" si="10">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E23" s="35">
+        <v>45378</v>
+      </c>
+      <c r="F23" s="36">
+        <f>IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <v>45380</v>
       </c>
       <c r="G23" s="18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="str">
-        <f t="shared" ref="I23:I25" si="11">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
-        <v xml:space="preserve"> - </v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="20">
+        <f>IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <v>3</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="16"/>
@@ -4163,32 +4844,34 @@
       <c r="BM23" s="16"/>
       <c r="BN23" s="16"/>
     </row>
-    <row r="24" spans="1:66" s="17" customFormat="1" ht="18">
+    <row r="24" spans="1:66" s="17" customFormat="1" ht="17.45">
       <c r="A24" s="16" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>3.4</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36" t="str">
-        <f>IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E24" s="35">
+        <v>45380</v>
+      </c>
+      <c r="F24" s="36">
+        <f t="shared" ref="F24:F26" si="12">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <v>45382</v>
       </c>
       <c r="G24" s="18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20" t="str">
-        <f>IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
-        <v xml:space="preserve"> - </v>
+        <v>1</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" ref="I24:I26" si="13">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+        <v>1</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="16"/>
@@ -4250,30 +4933,32 @@
     </row>
     <row r="25" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A25" s="16" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>29</v>
-      </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E25" s="35">
+        <v>45380</v>
+      </c>
+      <c r="F25" s="36">
+        <f>IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>45380</v>
       </c>
       <c r="G25" s="18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
+        <v>1</v>
+      </c>
+      <c r="I25" s="20">
+        <f>IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <v>1</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="16"/>
@@ -4333,196 +5018,199 @@
       <c r="BM25" s="16"/>
       <c r="BN25" s="16"/>
     </row>
-    <row r="26" spans="1:66" s="11" customFormat="1" ht="17.45">
-      <c r="A26" s="9" t="str">
+    <row r="26" spans="1:66" s="17" customFormat="1" ht="18">
+      <c r="A26" s="16" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.6</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="35">
+        <v>45416</v>
+      </c>
+      <c r="F26" s="36">
+        <f t="shared" si="12"/>
+        <v>45416</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+      <c r="BN26" s="16"/>
+    </row>
+    <row r="27" spans="1:66" s="11" customFormat="1" ht="17.45">
+      <c r="A27" s="9" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37" t="str">
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="str">
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="40"/>
-      <c r="AV26" s="40"/>
-      <c r="AW26" s="40"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
-      <c r="BB26" s="40"/>
-      <c r="BC26" s="40"/>
-      <c r="BD26" s="40"/>
-      <c r="BE26" s="40"/>
-      <c r="BF26" s="40"/>
-      <c r="BG26" s="40"/>
-      <c r="BH26" s="40"/>
-      <c r="BI26" s="40"/>
-      <c r="BJ26" s="40"/>
-      <c r="BK26" s="40"/>
-      <c r="BL26" s="40"/>
-      <c r="BM26" s="40"/>
-      <c r="BN26" s="40"/>
-    </row>
-    <row r="27" spans="1:66" s="11" customFormat="1" ht="18">
-      <c r="A27" s="16" t="str">
+      <c r="J27" s="34"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="40"/>
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="40"/>
+      <c r="BD27" s="40"/>
+      <c r="BE27" s="40"/>
+      <c r="BF27" s="40"/>
+      <c r="BG27" s="40"/>
+      <c r="BH27" s="40"/>
+      <c r="BI27" s="40"/>
+      <c r="BJ27" s="40"/>
+      <c r="BK27" s="40"/>
+      <c r="BL27" s="40"/>
+      <c r="BM27" s="40"/>
+      <c r="BN27" s="40"/>
+    </row>
+    <row r="28" spans="1:66" s="11" customFormat="1" ht="18">
+      <c r="A28" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36" t="str">
-        <f>IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G27" s="18">
-        <v>14</v>
-      </c>
-      <c r="H27" s="61">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20" t="str">
-        <f>IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="16"/>
-      <c r="AT27" s="16"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="16"/>
-      <c r="AX27" s="16"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="16"/>
-      <c r="BH27" s="16"/>
-      <c r="BI27" s="16"/>
-      <c r="BJ27" s="16"/>
-      <c r="BK27" s="16"/>
-      <c r="BL27" s="16"/>
-      <c r="BM27" s="16"/>
-      <c r="BN27" s="16"/>
-    </row>
-    <row r="28" spans="1:66" s="17" customFormat="1" ht="17.45">
-      <c r="A28" s="16" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
       <c r="B28" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D28" s="53"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E28" s="35">
+        <v>45395</v>
+      </c>
+      <c r="F28" s="36">
+        <f>IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>45399</v>
       </c>
       <c r="G28" s="18">
-        <v>30</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
+      </c>
+      <c r="H28" s="61">
+        <v>1</v>
+      </c>
+      <c r="I28" s="20">
+        <f>IF(OR(F28=0,E28=0)," - ",NETWORKDAYS(E28,F28))</f>
+        <v>3</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="16"/>
@@ -4585,29 +5273,31 @@
     <row r="29" spans="1:66" s="17" customFormat="1" ht="17.45">
       <c r="A29" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36" t="str">
+      <c r="E29" s="35">
+        <v>45389</v>
+      </c>
+      <c r="F29" s="36">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
+        <v>45418</v>
       </c>
       <c r="G29" s="18">
         <v>30</v>
       </c>
       <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="20">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>21</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="16"/>
@@ -4667,22 +5357,24 @@
       <c r="BM29" s="16"/>
       <c r="BN29" s="16"/>
     </row>
-    <row r="30" spans="1:66" s="17" customFormat="1" ht="18">
+    <row r="30" spans="1:66" s="17" customFormat="1" ht="17.45">
       <c r="A30" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>14</v>
+        <v>4.3</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36" t="str">
+      <c r="E30" s="35">
+        <v>45399</v>
+      </c>
+      <c r="F30" s="36">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
+        <v>45428</v>
       </c>
       <c r="G30" s="18">
         <v>30</v>
@@ -4690,9 +5382,9 @@
       <c r="H30" s="19">
         <v>0</v>
       </c>
-      <c r="I30" s="20" t="str">
+      <c r="I30" s="20">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>22</v>
       </c>
       <c r="J30" s="33"/>
       <c r="K30" s="16"/>
@@ -4726,7 +5418,6 @@
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
       <c r="AS30" s="16"/>
@@ -4755,29 +5446,31 @@
     <row r="31" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A31" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="53"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36" t="str">
+      <c r="E31" s="35">
+        <v>45389</v>
+      </c>
+      <c r="F31" s="36">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
+        <v>45418</v>
       </c>
       <c r="G31" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20" t="str">
+        <v>0.33</v>
+      </c>
+      <c r="I31" s="20">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+        <v>21</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="16"/>
@@ -4837,21 +5530,21 @@
       <c r="BM31" s="16"/>
       <c r="BN31" s="16"/>
     </row>
-    <row r="32" spans="1:66" s="17" customFormat="1" ht="17.45">
+    <row r="32" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A32" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.6</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="58" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="53"/>
       <c r="E32" s="35"/>
       <c r="F32" s="36" t="str">
-        <f>IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G32" s="18">
@@ -4922,110 +5615,116 @@
       <c r="BM32" s="16"/>
       <c r="BN32" s="16"/>
     </row>
-    <row r="33" spans="1:66" s="11" customFormat="1" ht="17.45">
-      <c r="A33" s="9" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37" t="str">
-        <f t="shared" ref="F33:F35" si="12">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+    <row r="33" spans="1:66" s="17" customFormat="1" ht="17.45">
+      <c r="A33" s="16" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.6</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36" t="str">
+        <f>IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15" t="str">
-        <f t="shared" ref="I33:I35" si="13">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
+      <c r="G33" s="18">
+        <v>10</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="40"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="40"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
-      <c r="AS33" s="40"/>
-      <c r="AT33" s="40"/>
-      <c r="AU33" s="40"/>
-      <c r="AV33" s="40"/>
-      <c r="AW33" s="40"/>
-      <c r="AX33" s="40"/>
-      <c r="AY33" s="40"/>
-      <c r="AZ33" s="40"/>
-      <c r="BA33" s="40"/>
-      <c r="BB33" s="40"/>
-      <c r="BC33" s="40"/>
-      <c r="BD33" s="40"/>
-      <c r="BE33" s="40"/>
-      <c r="BF33" s="40"/>
-      <c r="BG33" s="40"/>
-      <c r="BH33" s="40"/>
-      <c r="BI33" s="40"/>
-      <c r="BJ33" s="40"/>
-      <c r="BK33" s="40"/>
-      <c r="BL33" s="40"/>
-      <c r="BM33" s="40"/>
-      <c r="BN33" s="40"/>
-    </row>
-    <row r="34" spans="1:66" s="17" customFormat="1" ht="17.45">
+      <c r="J33" s="33"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="16"/>
+      <c r="BE33" s="16"/>
+      <c r="BF33" s="16"/>
+      <c r="BG33" s="16"/>
+      <c r="BH33" s="16"/>
+      <c r="BI33" s="16"/>
+      <c r="BJ33" s="16"/>
+      <c r="BK33" s="16"/>
+      <c r="BL33" s="16"/>
+      <c r="BM33" s="16"/>
+      <c r="BN33" s="16"/>
+    </row>
+    <row r="34" spans="1:66" s="17" customFormat="1" ht="18">
       <c r="A34" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D34" s="53"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G34" s="18">
-        <v>17</v>
-      </c>
-      <c r="H34" s="19">
+        <v>10</v>
+      </c>
+      <c r="H34" s="61">
         <v>0</v>
       </c>
       <c r="I34" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR(F34=0,E34=0)," - ",NETWORKDAYS(E34,F34))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J34" s="33"/>
@@ -5086,106 +5785,278 @@
       <c r="BM34" s="16"/>
       <c r="BN34" s="16"/>
     </row>
-    <row r="35" spans="1:66" s="17" customFormat="1" ht="17.45">
-      <c r="A35" s="16" t="str">
+    <row r="35" spans="1:66" s="11" customFormat="1" ht="17.45">
+      <c r="A35" s="9" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37" t="str">
+        <f t="shared" ref="F35:F37" si="14">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15" t="str">
+        <f t="shared" ref="I35:I37" si="15">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="40"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
+      <c r="AV35" s="40"/>
+      <c r="AW35" s="40"/>
+      <c r="AX35" s="40"/>
+      <c r="AY35" s="40"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="40"/>
+      <c r="BB35" s="40"/>
+      <c r="BC35" s="40"/>
+      <c r="BD35" s="40"/>
+      <c r="BE35" s="40"/>
+      <c r="BF35" s="40"/>
+      <c r="BG35" s="40"/>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="40"/>
+      <c r="BJ35" s="40"/>
+      <c r="BK35" s="40"/>
+      <c r="BL35" s="40"/>
+      <c r="BM35" s="40"/>
+      <c r="BN35" s="40"/>
+    </row>
+    <row r="36" spans="1:66" s="17" customFormat="1" ht="17.45">
+      <c r="A36" s="16" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G36" s="18">
+        <v>17</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="16"/>
+      <c r="BG36" s="16"/>
+      <c r="BH36" s="16"/>
+      <c r="BI36" s="16"/>
+      <c r="BJ36" s="16"/>
+      <c r="BK36" s="16"/>
+      <c r="BL36" s="16"/>
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
+    </row>
+    <row r="37" spans="1:66" s="17" customFormat="1" ht="17.45">
+      <c r="A37" s="16" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="58" t="s">
+      <c r="B37" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36" t="str">
-        <f t="shared" si="12"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G35" s="18">
+      <c r="G37" s="18">
         <v>17</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H37" s="19">
         <v>0</v>
       </c>
-      <c r="I35" s="20" t="str">
-        <f t="shared" si="13"/>
+      <c r="I37" s="20" t="str">
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="16"/>
-      <c r="AS35" s="16"/>
-      <c r="AT35" s="16"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="16"/>
-      <c r="AW35" s="16"/>
-      <c r="AX35" s="16"/>
-      <c r="AY35" s="16"/>
-      <c r="AZ35" s="16"/>
-      <c r="BA35" s="16"/>
-      <c r="BB35" s="16"/>
-      <c r="BC35" s="16"/>
-      <c r="BD35" s="16"/>
-      <c r="BE35" s="16"/>
-      <c r="BF35" s="16"/>
-      <c r="BG35" s="16"/>
-      <c r="BH35" s="16"/>
-      <c r="BI35" s="16"/>
-      <c r="BJ35" s="16"/>
-      <c r="BK35" s="16"/>
-      <c r="BL35" s="16"/>
-      <c r="BM35" s="16"/>
-      <c r="BN35" s="16"/>
-    </row>
-    <row r="36" spans="1:66" ht="12.75"/>
-    <row r="40" spans="1:66">
-      <c r="H40" s="57"/>
-    </row>
-    <row r="41" spans="1:66" ht="12.75"/>
-    <row r="42" spans="1:66" ht="12.75"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
+      <c r="BC37" s="16"/>
+      <c r="BD37" s="16"/>
+      <c r="BE37" s="16"/>
+      <c r="BF37" s="16"/>
+      <c r="BG37" s="16"/>
+      <c r="BH37" s="16"/>
+      <c r="BI37" s="16"/>
+      <c r="BJ37" s="16"/>
+      <c r="BK37" s="16"/>
+      <c r="BL37" s="16"/>
+      <c r="BM37" s="16"/>
+      <c r="BN37" s="16"/>
+    </row>
+    <row r="38" spans="1:66" ht="12.75"/>
+    <row r="42" spans="1:66">
+      <c r="H42" s="57"/>
+    </row>
     <row r="43" spans="1:66" ht="12.75"/>
     <row r="44" spans="1:66" ht="12.75"/>
     <row r="45" spans="1:66" ht="12.75"/>
     <row r="46" spans="1:66" ht="12.75"/>
     <row r="47" spans="1:66" ht="12.75"/>
     <row r="48" spans="1:66" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -5196,17 +6067,9 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H35">
+  <conditionalFormatting sqref="H8:H37">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5221,21 +6084,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="3" priority="45">
+    <cfRule type="expression" dxfId="6" priority="45">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN35">
-    <cfRule type="expression" dxfId="2" priority="48">
+  <conditionalFormatting sqref="K8:BN29 K30:AN30 AQ30:BN30 K31:BN37">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="4" priority="49">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN35">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="K6:BN29 K30:AN30 AQ30:BN30 K31:BN37">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30">
+    <cfRule type="expression" dxfId="2" priority="52">
+      <formula>AND($E30&lt;=AP$6,ROUNDDOWN(($F30-$E30+1)*$H30,0)+$E30-1&gt;=AP$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>AND(NOT(ISBLANK($E30)),$E30&lt;=AP$6,$F30&gt;=AP$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>AP$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5245,8 +6121,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E16 E26 G16:H16 G26:H26 H31 H28 H29 H30" unlockedFormula="1"/>
-    <ignoredError sqref="A26 A16" formula="1"/>
+    <ignoredError sqref="E16 E27 G16:H16 G27:H27 H32 H30" unlockedFormula="1"/>
+    <ignoredError sqref="A27 A16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5266,10 +6142,755 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H35</xm:sqref>
+          <xm:sqref>H8:H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44C6A40-4C20-4A9E-8E7B-06E721690439}">
+  <dimension ref="A1:AJ33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18.75">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="T1" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="S2" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="C3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="C4" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="C5" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="C6" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="C7" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="14" spans="1:20" ht="15">
+      <c r="B14" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="S14" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" ht="15">
+      <c r="R19" s="71"/>
+      <c r="S19" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36">
+      <c r="T20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB20" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+    </row>
+    <row r="21" spans="2:36">
+      <c r="T21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+    </row>
+    <row r="22" spans="2:36">
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+    </row>
+    <row r="23" spans="2:36">
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+    </row>
+    <row r="24" spans="2:36">
+      <c r="B24" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+    </row>
+    <row r="25" spans="2:36">
+      <c r="C25" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+    </row>
+    <row r="26" spans="2:36">
+      <c r="C26" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="AB20:AJ25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5911B-385C-4FAE-8F4A-392AAAE93C1A}">
+  <dimension ref="B1:Z38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="24">
+      <c r="C1" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="N1" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="B2" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="N2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="14" spans="2:25" ht="15">
+      <c r="B14" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="N14" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="B15" s="126"/>
+      <c r="C15" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" customHeight="1">
+      <c r="B19" s="132"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="133"/>
+      <c r="N19" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="96"/>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="B20" s="132"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="133"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="97"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="99"/>
+    </row>
+    <row r="24" spans="2:26" ht="178.5" customHeight="1">
+      <c r="B24" s="137" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="N24" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="114"/>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="B25" s="138"/>
+      <c r="C25" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="140"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="116"/>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="116"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="N27" s="115"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="116"/>
+    </row>
+    <row r="28" spans="2:26">
+      <c r="N28" s="115"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="116"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="N29" s="115"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="116"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="B30" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="116"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="B31" s="141"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="145"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="119"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="138"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+    </row>
+    <row r="36" spans="14:21">
+      <c r="N36" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" s="142"/>
+      <c r="P36" s="142"/>
+      <c r="Q36" s="142"/>
+      <c r="R36" s="142"/>
+      <c r="S36" s="142"/>
+      <c r="T36" s="142"/>
+      <c r="U36" s="143"/>
+    </row>
+    <row r="37" spans="14:21">
+      <c r="N37" s="141"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="144"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="145"/>
+    </row>
+    <row r="38" spans="14:21">
+      <c r="N38" s="138"/>
+      <c r="O38" s="146"/>
+      <c r="P38" s="146"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="146"/>
+      <c r="S38" s="146"/>
+      <c r="T38" s="146"/>
+      <c r="U38" s="147"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="O20:V20"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="N24:N31"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:I32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="O36:U38"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="O24:V31"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="W19:Z21"/>
+    <mergeCell ref="C18:I21"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C26:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>